--- a/data/trans_dic/P5_7-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P5_7-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de ventanas al exterior en su vivienda</t>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,17 +607,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>97,67%</t>
+          <t>97,49%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>98,57%</t>
+          <t>98,46%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,62; 100,0</t>
+          <t>95,97; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>96,74; 100,0</t>
+          <t>96,81; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,02; 100,0</t>
+          <t>93,6; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>93,47; 99,4</t>
+          <t>92,2; 99,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,1; 99,73</t>
+          <t>96,12; 99,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,24; 99,66</t>
+          <t>96,41; 99,68</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>91,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>98,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>94,79%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,6; 97,24</t>
+          <t>90,49; 97,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,93; 96,82</t>
+          <t>74,35; 96,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,13; 100,0</t>
+          <t>97,24; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>94,72; 100,0</t>
+          <t>96,2; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,5; 98,19</t>
+          <t>94,76; 98,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>88,05; 97,76</t>
+          <t>85,74; 98,0</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>98,73%</t>
+          <t>98,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>97,06%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>95,79; 99,32</t>
+          <t>95,83; 99,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,31; 99,61</t>
+          <t>96,36; 99,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,18; 97,51</t>
+          <t>93,11; 97,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>93,03; 97,68</t>
+          <t>92,53; 97,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>95,26; 98,02</t>
+          <t>95,22; 97,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>95,41; 98,29</t>
+          <t>95,17; 98,22</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98,2%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>97,64%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>94,35; 98,49</t>
+          <t>94,19; 98,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,49; 98,91</t>
+          <t>94,48; 98,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>96,04; 99,21</t>
+          <t>96,13; 99,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,38; 99,39</t>
+          <t>96,13; 99,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,89; 98,38</t>
+          <t>96,04; 98,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,16; 98,74</t>
+          <t>96,05; 98,78</t>
         </is>
       </c>
     </row>
@@ -926,7 +927,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,47%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>96,75%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>95,93; 99,26</t>
+          <t>95,99; 99,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,55; 99,09</t>
+          <t>95,05; 99,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,61; 99,18</t>
+          <t>94,56; 99,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92,96; 98,26</t>
+          <t>92,3; 98,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>96,21; 98,84</t>
+          <t>95,86; 98,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>95,03; 98,24</t>
+          <t>94,85; 98,13</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1007,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1017,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1027,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>98,25%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>95,28; 99,51</t>
+          <t>95,56; 99,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>95,36; 99,6</t>
+          <t>94,95; 99,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,43; 99,41</t>
+          <t>96,46; 99,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,46; 99,3</t>
+          <t>95,68; 99,54</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>96,74; 99,14</t>
+          <t>96,79; 99,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>95,37; 99,1</t>
+          <t>96,38; 99,29</t>
         </is>
       </c>
     </row>
@@ -1086,27 +1087,27 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>97,0%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>97,73%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>97,36%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>97,56%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>97,18%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>97,73%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>97,29%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>97,56%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>97,24%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>96,47; 98,19</t>
+          <t>96,4; 98,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>94,69; 98,19</t>
+          <t>94,21; 98,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>96,83; 98,34</t>
+          <t>96,85; 98,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>96,19; 98,16</t>
+          <t>96,41; 98,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>96,9; 98,06</t>
+          <t>96,94; 98,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>96,18; 97,88</t>
+          <t>95,85; 97,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de ventanas al exterior en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>507545</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>498902</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>454596</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>457044</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>962141</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>955946</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>492297; 512969</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>486062; 502066</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>433258; 462867</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>432238; 465743</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>937981; 970674</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>935966; 967731</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>378.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>532737</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>521929</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>514363</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>513564</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1047099</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1035493</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>509857; 547012</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>426228; 554461</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>504523; 518857</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>499340; 519056</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1025537; 1063530</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>936538; 1070476</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>322.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>272.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>568.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>661981</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>677706</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>664788</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>679977</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1326769</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1357683</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>647667; 671117</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>661401; 683638</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>646401; 677420</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>659263; 692961</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1304625; 1341218</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1331227; 1373988</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>348.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>631.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>550.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>618471</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>628848</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>688282</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>672600</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1306754</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1301449</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>601375; 628699</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>611540; 640278</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>676045; 697447</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>659057; 681130</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1288518; 1321793</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1280277; 1316573</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>467.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>415.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>502327</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>482783</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>489503</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>488971</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>991831</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>971754</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>491376; 508394</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>470789; 491050</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>475111; 497702</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>469871; 499555</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>972309; 1002382</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>952634; 985556</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>212.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>536405</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>535687</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>719181</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>705081</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1255585</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1240768</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>522565; 544309</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>517685; 542724</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>705237; 726854</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>686726; 714388</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1236994; 1267153</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1217212; 1253920</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1312.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1124.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1564.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1314.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2876.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>2438.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3359466</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3345855</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3530714</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3517238</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>6890179</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>6863093</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3325196; 3384064</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3249742; 3381918</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3498832; 3556012</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3483176; 3543948</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>6846074; 6927415</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6769355; 6913800</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>